--- a/docs/Mapping_casi_uso/cittadinanza/Citt_025.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_025.xlsx
@@ -1395,7 +1395,7 @@
         <v>106</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>107</v>
@@ -1404,7 +1404,7 @@
         <v>108</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="49">

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_025.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_025.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="123">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,6 +32,9 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
     <t>Allegati</t>
   </si>
   <si>
@@ -60,6 +63,9 @@
   </si>
   <si>
     <t>numeroatto</t>
+  </si>
+  <si>
+    <t>obbligatoria</t>
   </si>
   <si>
     <t>Data formazione</t>
@@ -433,7 +439,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G54"/>
+  <dimension ref="A1:H54"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -445,6 +451,7 @@
     <col min="4" max="4" width="45.0546875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="25.734375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="24.609375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -466,45 +473,54 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -526,1005 +542,1158 @@
       <c r="F4" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G4" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="E10" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B37" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D37" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C37" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="E37" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B49" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D49" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C49" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>107</v>
-      </c>
       <c r="E49" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_025.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_025.xlsx
@@ -32,7 +32,7 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
-    <t>Condizioni obbligatorieta'</t>
+    <t>Si puo' ignorare la sezione per</t>
   </si>
   <si>
     <t>Allegati</t>
@@ -451,7 +451,7 @@
     <col min="4" max="4" width="45.0546875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="25.734375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="24.609375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="28.44921875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_025.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_025.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="124">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,25 +32,28 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
+    <t>Allegati</t>
+  </si>
+  <si>
+    <t>Esito accertamento di cittadinanza</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>193.9</t>
+  </si>
+  <si>
     <t>Si puo' ignorare la sezione per</t>
-  </si>
-  <si>
-    <t>Allegati</t>
-  </si>
-  <si>
-    <t>Esito accertamento di cittadinanza</t>
-  </si>
-  <si>
-    <t>SI</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Formula</t>
-  </si>
-  <si>
-    <t>193.9</t>
   </si>
   <si>
     <t>Formazione atto</t>
@@ -543,1157 +546,1157 @@
         <v>5</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_025.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_025.xlsx
@@ -1293,7 +1293,7 @@
         <v>88</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>86</v>
@@ -1316,7 +1316,7 @@
         <v>90</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>86</v>
@@ -1339,7 +1339,7 @@
         <v>92</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>86</v>
@@ -1362,7 +1362,7 @@
         <v>94</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>86</v>
@@ -1385,7 +1385,7 @@
         <v>96</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>86</v>
@@ -1408,7 +1408,7 @@
         <v>98</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>86</v>
@@ -1431,7 +1431,7 @@
         <v>99</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>86</v>
@@ -1477,7 +1477,7 @@
         <v>102</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>86</v>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_025.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_025.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="126">
   <si>
     <t>Sezione</t>
   </si>
@@ -194,6 +194,12 @@
     <t>nomeComuneNascita</t>
   </si>
   <si>
+    <t>Località estera</t>
+  </si>
+  <si>
+    <t>localitaEsteraNascita</t>
+  </si>
+  <si>
     <t>Nazionalità</t>
   </si>
   <si>
@@ -320,22 +326,22 @@
     <t>Data atto</t>
   </si>
   <si>
+    <t>Parte</t>
+  </si>
+  <si>
+    <t>parte</t>
+  </si>
+  <si>
+    <t>Serie</t>
+  </si>
+  <si>
+    <t>serie</t>
+  </si>
+  <si>
     <t>Tipo registro</t>
   </si>
   <si>
     <t>tipologia</t>
-  </si>
-  <si>
-    <t>Parte</t>
-  </si>
-  <si>
-    <t>parte</t>
-  </si>
-  <si>
-    <t>Serie</t>
-  </si>
-  <si>
-    <t>serie</t>
   </si>
   <si>
     <t>Autorità mittente</t>
@@ -442,7 +448,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H54"/>
+  <dimension ref="A1:H55"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -994,7 +1000,7 @@
         <v>60</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>38</v>
@@ -1086,7 +1092,7 @@
         <v>68</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>38</v>
@@ -1201,7 +1207,7 @@
         <v>78</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>38</v>
@@ -1264,19 +1270,19 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="C36" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E36" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>87</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
@@ -1287,16 +1293,16 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B37" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D37" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>86</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>89</v>
@@ -1310,7 +1316,7 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>90</v>
@@ -1319,7 +1325,7 @@
         <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>91</v>
@@ -1333,7 +1339,7 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>92</v>
@@ -1342,7 +1348,7 @@
         <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>93</v>
@@ -1356,7 +1362,7 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>94</v>
@@ -1365,7 +1371,7 @@
         <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>95</v>
@@ -1379,7 +1385,7 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>96</v>
@@ -1388,7 +1394,7 @@
         <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>97</v>
@@ -1402,7 +1408,7 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>98</v>
@@ -1411,10 +1417,10 @@
         <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>17</v>
+        <v>99</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
@@ -1425,19 +1431,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>100</v>
+        <v>17</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
@@ -1448,19 +1454,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>101</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>20</v>
+        <v>102</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1471,19 +1477,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>103</v>
+        <v>20</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1494,7 +1500,7 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>104</v>
@@ -1503,7 +1509,7 @@
         <v>37</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>105</v>
@@ -1517,7 +1523,7 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>106</v>
@@ -1526,7 +1532,7 @@
         <v>37</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>107</v>
@@ -1540,19 +1546,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="C48" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>111</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1563,16 +1569,16 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B49" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D49" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>110</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>113</v>
@@ -1586,7 +1592,7 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>114</v>
@@ -1595,7 +1601,7 @@
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>115</v>
@@ -1609,7 +1615,7 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>116</v>
@@ -1618,7 +1624,7 @@
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>117</v>
@@ -1632,16 +1638,16 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>118</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>119</v>
@@ -1655,16 +1661,16 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>120</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>121</v>
@@ -1678,24 +1684,47 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>122</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>123</v>
       </c>
       <c r="F54" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F55" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G54" s="2" t="s">
+      <c r="G55" s="2" t="s">
         <v>18</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_025.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_025.xlsx
@@ -1552,7 +1552,7 @@
         <v>108</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>88</v>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_025.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_025.xlsx
@@ -1552,7 +1552,7 @@
         <v>108</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>88</v>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_025.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_025.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="134">
   <si>
     <t>Sezione</t>
   </si>
@@ -252,6 +252,30 @@
   </si>
   <si>
     <t>indirizzoResidenza</t>
+  </si>
+  <si>
+    <t>Provincia AIRE</t>
+  </si>
+  <si>
+    <t>idProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Provincia AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE</t>
+  </si>
+  <si>
+    <t>idComuneAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneAIRE</t>
   </si>
   <si>
     <t>flag dichiarante</t>
@@ -448,7 +472,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H55"/>
+  <dimension ref="A1:H59"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1230,7 +1254,7 @@
         <v>80</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>38</v>
@@ -1253,7 +1277,7 @@
         <v>82</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>38</v>
@@ -1276,7 +1300,7 @@
         <v>84</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>38</v>
@@ -1293,19 +1317,19 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="C37" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E37" s="2" t="s">
         <v>87</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>89</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
@@ -1316,19 +1340,19 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>86</v>
+        <v>35</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>88</v>
+        <v>38</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
@@ -1339,19 +1363,19 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>86</v>
+        <v>35</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>88</v>
+        <v>38</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
@@ -1362,19 +1386,19 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>86</v>
+        <v>35</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>88</v>
+        <v>38</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
@@ -1385,16 +1409,16 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="B41" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D41" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>88</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>97</v>
@@ -1408,7 +1432,7 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>98</v>
@@ -1417,7 +1441,7 @@
         <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>99</v>
@@ -1431,7 +1455,7 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>100</v>
@@ -1440,10 +1464,10 @@
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>17</v>
+        <v>101</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
@@ -1454,19 +1478,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1477,19 +1501,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>20</v>
+        <v>105</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1500,19 +1524,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1523,19 +1547,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>107</v>
+        <v>17</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1546,19 +1570,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1569,19 +1593,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>111</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>113</v>
+        <v>20</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1592,19 +1616,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1615,19 +1639,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1638,19 +1662,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1661,16 +1685,16 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="B53" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D53" s="2" t="s">
         <v>120</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>112</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>121</v>
@@ -1684,7 +1708,7 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>122</v>
@@ -1693,7 +1717,7 @@
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>123</v>
@@ -1707,24 +1731,116 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>124</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>125</v>
       </c>
       <c r="F55" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F59" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G55" s="2" t="s">
+      <c r="G59" s="2" t="s">
         <v>18</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_025.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_025.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="136">
   <si>
     <t>Sezione</t>
   </si>
@@ -144,6 +144,12 @@
   </si>
   <si>
     <t>codiceFiscale</t>
+  </si>
+  <si>
+    <t>Identificativo unico nazionale</t>
+  </si>
+  <si>
+    <t>idANPR</t>
   </si>
   <si>
     <t>Sesso</t>
@@ -472,7 +478,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H59"/>
+  <dimension ref="A1:H60"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -840,7 +846,7 @@
         <v>44</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>38</v>
@@ -932,7 +938,7 @@
         <v>52</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>38</v>
@@ -1047,7 +1053,7 @@
         <v>62</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>38</v>
@@ -1139,7 +1145,7 @@
         <v>70</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>38</v>
@@ -1346,7 +1352,7 @@
         <v>88</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>38</v>
@@ -1409,19 +1415,19 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B41" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="C41" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E41" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>97</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
@@ -1432,16 +1438,16 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B42" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D42" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>96</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>99</v>
@@ -1455,7 +1461,7 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>100</v>
@@ -1464,7 +1470,7 @@
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>101</v>
@@ -1478,7 +1484,7 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>102</v>
@@ -1487,7 +1493,7 @@
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>103</v>
@@ -1501,7 +1507,7 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>104</v>
@@ -1510,7 +1516,7 @@
         <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>105</v>
@@ -1524,7 +1530,7 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>106</v>
@@ -1533,7 +1539,7 @@
         <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>107</v>
@@ -1547,7 +1553,7 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>108</v>
@@ -1556,10 +1562,10 @@
         <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>17</v>
+        <v>109</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1570,19 +1576,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>110</v>
+        <v>17</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1593,19 +1599,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>111</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>20</v>
+        <v>112</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1616,19 +1622,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>113</v>
+        <v>20</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1639,7 +1645,7 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>114</v>
@@ -1648,7 +1654,7 @@
         <v>37</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>115</v>
@@ -1662,7 +1668,7 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>116</v>
@@ -1671,7 +1677,7 @@
         <v>37</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>117</v>
@@ -1685,19 +1691,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B53" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="C53" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E53" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>121</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1708,16 +1714,16 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B54" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D54" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>120</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>123</v>
@@ -1731,7 +1737,7 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>124</v>
@@ -1740,7 +1746,7 @@
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>125</v>
@@ -1754,7 +1760,7 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>126</v>
@@ -1763,7 +1769,7 @@
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>127</v>
@@ -1777,16 +1783,16 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>128</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>129</v>
@@ -1800,16 +1806,16 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>130</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>131</v>
@@ -1823,24 +1829,47 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>132</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>133</v>
       </c>
       <c r="F59" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F60" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G59" s="2" t="s">
+      <c r="G60" s="2" t="s">
         <v>18</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_025.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_025.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="138">
   <si>
     <t>Sezione</t>
   </si>
@@ -216,6 +216,12 @@
   </si>
   <si>
     <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Residenza non nota</t>
+  </si>
+  <si>
+    <t>flagIrreperibile</t>
   </si>
   <si>
     <t>Stato Residenza</t>
@@ -478,7 +484,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H60"/>
+  <dimension ref="A1:H61"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1122,7 +1128,7 @@
         <v>68</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>38</v>
@@ -1145,7 +1151,7 @@
         <v>70</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>38</v>
@@ -1375,7 +1381,7 @@
         <v>90</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>38</v>
@@ -1438,19 +1444,19 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B42" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="C42" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>99</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
@@ -1461,16 +1467,16 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B43" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D43" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>98</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>101</v>
@@ -1484,7 +1490,7 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>102</v>
@@ -1493,7 +1499,7 @@
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>103</v>
@@ -1507,7 +1513,7 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>104</v>
@@ -1516,7 +1522,7 @@
         <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>105</v>
@@ -1530,7 +1536,7 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>106</v>
@@ -1539,7 +1545,7 @@
         <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>107</v>
@@ -1553,7 +1559,7 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>108</v>
@@ -1562,7 +1568,7 @@
         <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>109</v>
@@ -1576,7 +1582,7 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>110</v>
@@ -1585,10 +1591,10 @@
         <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>17</v>
+        <v>111</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1599,19 +1605,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>112</v>
+        <v>17</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1622,19 +1628,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>113</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>20</v>
+        <v>114</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1645,19 +1651,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>115</v>
+        <v>20</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1668,7 +1674,7 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>116</v>
@@ -1677,7 +1683,7 @@
         <v>37</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>117</v>
@@ -1691,7 +1697,7 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>118</v>
@@ -1700,7 +1706,7 @@
         <v>37</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>119</v>
@@ -1714,19 +1720,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B54" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="C54" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E54" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>123</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1737,16 +1743,16 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B55" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D55" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>122</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>125</v>
@@ -1760,7 +1766,7 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>126</v>
@@ -1769,7 +1775,7 @@
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>127</v>
@@ -1783,7 +1789,7 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>128</v>
@@ -1792,7 +1798,7 @@
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>129</v>
@@ -1806,16 +1812,16 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>130</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>131</v>
@@ -1829,16 +1835,16 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>132</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>133</v>
@@ -1852,24 +1858,47 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>134</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>135</v>
       </c>
       <c r="F60" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F61" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G60" s="2" t="s">
+      <c r="G61" s="2" t="s">
         <v>18</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_025.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_025.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="140">
   <si>
     <t>Sezione</t>
   </si>
@@ -372,6 +372,12 @@
   </si>
   <si>
     <t>serie</t>
+  </si>
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>volume</t>
   </si>
   <si>
     <t>Tipo registro</t>
@@ -484,7 +490,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H61"/>
+  <dimension ref="A1:H62"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1743,19 +1749,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B55" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B55" s="2" t="s">
+      <c r="C55" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E55" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>125</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1766,16 +1772,16 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B56" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D56" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>124</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>127</v>
@@ -1789,7 +1795,7 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>128</v>
@@ -1798,7 +1804,7 @@
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>129</v>
@@ -1812,7 +1818,7 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>130</v>
@@ -1821,7 +1827,7 @@
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>131</v>
@@ -1835,16 +1841,16 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>132</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>133</v>
@@ -1858,16 +1864,16 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>134</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>135</v>
@@ -1881,24 +1887,47 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>136</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>137</v>
       </c>
       <c r="F61" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F62" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G61" s="2" t="s">
+      <c r="G62" s="2" t="s">
         <v>18</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_025.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_025.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="142">
   <si>
     <t>Sezione</t>
   </si>
@@ -288,6 +288,12 @@
   </si>
   <si>
     <t>nomeComuneAIRE</t>
+  </si>
+  <si>
+    <t>Residenza al momento dell'evento originario</t>
+  </si>
+  <si>
+    <t>residenzaOriginaria</t>
   </si>
   <si>
     <t>flag dichiarante</t>
@@ -490,14 +496,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H62"/>
+  <dimension ref="A1:H63"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="16.73828125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="33.30859375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="40.984375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="45.0546875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="25.734375" customWidth="true" bestFit="true"/>
@@ -1410,7 +1416,7 @@
         <v>92</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>38</v>
@@ -1473,19 +1479,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="C43" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>101</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
@@ -1496,16 +1502,16 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B44" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D44" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>100</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>103</v>
@@ -1519,7 +1525,7 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>104</v>
@@ -1528,7 +1534,7 @@
         <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>105</v>
@@ -1542,7 +1548,7 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>106</v>
@@ -1551,7 +1557,7 @@
         <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>107</v>
@@ -1565,7 +1571,7 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>108</v>
@@ -1574,7 +1580,7 @@
         <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>109</v>
@@ -1588,7 +1594,7 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>110</v>
@@ -1597,7 +1603,7 @@
         <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>111</v>
@@ -1611,7 +1617,7 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>112</v>
@@ -1620,10 +1626,10 @@
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>17</v>
+        <v>113</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1634,19 +1640,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>114</v>
+        <v>17</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1657,19 +1663,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>115</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>20</v>
+        <v>116</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1680,19 +1686,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>117</v>
+        <v>20</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1703,7 +1709,7 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>118</v>
@@ -1712,7 +1718,7 @@
         <v>37</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>119</v>
@@ -1726,7 +1732,7 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>120</v>
@@ -1735,7 +1741,7 @@
         <v>37</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>121</v>
@@ -1749,7 +1755,7 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>122</v>
@@ -1758,7 +1764,7 @@
         <v>37</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>123</v>
@@ -1772,19 +1778,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B56" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="C56" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E56" s="2" t="s">
         <v>125</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>127</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1795,16 +1801,16 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B57" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D57" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>126</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>129</v>
@@ -1818,7 +1824,7 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>130</v>
@@ -1827,7 +1833,7 @@
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>131</v>
@@ -1841,7 +1847,7 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>132</v>
@@ -1850,7 +1856,7 @@
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>133</v>
@@ -1864,16 +1870,16 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>134</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>135</v>
@@ -1887,16 +1893,16 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>136</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>137</v>
@@ -1910,24 +1916,47 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>138</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>139</v>
       </c>
       <c r="F62" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F63" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G62" s="2" t="s">
+      <c r="G63" s="2" t="s">
         <v>18</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_025.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_025.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="140">
   <si>
     <t>Sezione</t>
   </si>
@@ -288,12 +288,6 @@
   </si>
   <si>
     <t>nomeComuneAIRE</t>
-  </si>
-  <si>
-    <t>Residenza al momento dell'evento originario</t>
-  </si>
-  <si>
-    <t>residenzaOriginaria</t>
   </si>
   <si>
     <t>flag dichiarante</t>
@@ -496,14 +490,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H63"/>
+  <dimension ref="A1:H62"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="16.73828125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="40.984375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="33.30859375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="45.0546875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="25.734375" customWidth="true" bestFit="true"/>
@@ -1416,7 +1410,7 @@
         <v>92</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>38</v>
@@ -1479,19 +1473,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>35</v>
+        <v>98</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>38</v>
+        <v>100</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
@@ -1502,16 +1496,16 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D44" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>102</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>103</v>
@@ -1525,7 +1519,7 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>104</v>
@@ -1534,7 +1528,7 @@
         <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>105</v>
@@ -1548,7 +1542,7 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>106</v>
@@ -1557,7 +1551,7 @@
         <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>107</v>
@@ -1571,7 +1565,7 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>108</v>
@@ -1580,7 +1574,7 @@
         <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>109</v>
@@ -1594,7 +1588,7 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>110</v>
@@ -1603,7 +1597,7 @@
         <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>111</v>
@@ -1617,7 +1611,7 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>112</v>
@@ -1626,10 +1620,10 @@
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>113</v>
+        <v>17</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1640,19 +1634,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D50" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="E50" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1663,19 +1657,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>115</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>116</v>
+        <v>20</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1686,19 +1680,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D52" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="E52" s="2" t="s">
         <v>117</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1709,7 +1703,7 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>118</v>
@@ -1718,7 +1712,7 @@
         <v>37</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>119</v>
@@ -1732,7 +1726,7 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>120</v>
@@ -1741,7 +1735,7 @@
         <v>37</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>121</v>
@@ -1755,7 +1749,7 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>122</v>
@@ -1764,7 +1758,7 @@
         <v>37</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>123</v>
@@ -1778,19 +1772,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>102</v>
+        <v>126</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1801,16 +1795,16 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D57" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>128</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>129</v>
@@ -1824,7 +1818,7 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>130</v>
@@ -1833,7 +1827,7 @@
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>131</v>
@@ -1847,7 +1841,7 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>132</v>
@@ -1856,7 +1850,7 @@
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>133</v>
@@ -1870,16 +1864,16 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>134</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>135</v>
@@ -1893,16 +1887,16 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>136</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>137</v>
@@ -1916,47 +1910,24 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>138</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>139</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="F63" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G63" s="2" t="s">
         <v>18</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_025.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_025.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="147">
   <si>
     <t>Sezione</t>
   </si>
@@ -158,6 +158,18 @@
     <t>sesso</t>
   </si>
   <si>
+    <t>Formato Data Nascita</t>
+  </si>
+  <si>
+    <t>idFormatodata</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>formatodata</t>
+  </si>
+  <si>
     <t>Data nascita</t>
   </si>
   <si>
@@ -324,6 +336,9 @@
   </si>
   <si>
     <t>idAnsc</t>
+  </si>
+  <si>
+    <t>opzionale</t>
   </si>
   <si>
     <t>Provincia registrazione</t>
@@ -496,7 +511,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H63"/>
+  <dimension ref="A1:H65"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -910,7 +925,7 @@
         <v>48</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>38</v>
@@ -933,7 +948,7 @@
         <v>50</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>38</v>
@@ -979,7 +994,7 @@
         <v>54</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>38</v>
@@ -1002,7 +1017,7 @@
         <v>56</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>38</v>
@@ -1094,7 +1109,7 @@
         <v>64</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>38</v>
@@ -1117,7 +1132,7 @@
         <v>66</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>38</v>
@@ -1140,7 +1155,7 @@
         <v>68</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>38</v>
@@ -1163,7 +1178,7 @@
         <v>70</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>38</v>
@@ -1439,7 +1454,7 @@
         <v>94</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>38</v>
@@ -1462,7 +1477,7 @@
         <v>96</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>38</v>
@@ -1502,19 +1517,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="C44" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>103</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1525,19 +1540,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>102</v>
+        <v>38</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1548,16 +1563,16 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B46" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D46" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>102</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>107</v>
@@ -1566,288 +1581,288 @@
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>18</v>
+        <v>108</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B47" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G47" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G47" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>18</v>
+        <v>108</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>18</v>
+        <v>108</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>17</v>
+        <v>116</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>18</v>
+        <v>108</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>18</v>
+        <v>108</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>18</v>
+        <v>108</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>18</v>
+        <v>108</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>121</v>
+        <v>20</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>18</v>
+        <v>108</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>18</v>
+        <v>108</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>18</v>
+        <v>108</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>126</v>
+        <v>104</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>127</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="D57" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E57" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="E57" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>18</v>
+        <v>108</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>126</v>
+        <v>104</v>
       </c>
       <c r="B58" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E58" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C58" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>131</v>
-      </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>18</v>
+        <v>108</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>132</v>
@@ -1856,10 +1871,10 @@
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1870,19 +1885,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1893,19 +1908,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1916,19 +1931,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1939,24 +1954,70 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F63" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F65" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G63" s="2" t="s">
+      <c r="G65" s="2" t="s">
         <v>18</v>
       </c>
     </row>
